--- a/re_attributes.xlsx
+++ b/re_attributes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demidov_ai\Documents\Демидов\Питон\excel_neosintez_integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BDF077-72ED-41E0-AE23-68B45EA28D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA6EBEC-4E7D-480E-929B-71169EDC5B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACD5EDCE-5462-4D4A-8670-E1A96D14B552}"/>
   </bookViews>
@@ -48,13 +48,13 @@
     <t>Подобъект</t>
   </si>
   <si>
+    <t>regexp</t>
+  </si>
+  <si>
     <t>\.?(\S?\d+(\.\d)?)</t>
   </si>
   <si>
-    <t>b2dade27-da32-ea11-9100-005056b6e70e</t>
-  </si>
-  <si>
-    <t>regexp</t>
+    <t>c7ec82e0-f360-e911-8115-817c3f53a992</t>
   </si>
 </sst>
 </file>
@@ -91,8 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -410,7 +411,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,7 +419,7 @@
     <col min="1" max="1" width="36.77734375" customWidth="1"/>
     <col min="2" max="2" width="16.21875" customWidth="1"/>
     <col min="3" max="3" width="35.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -431,13 +432,13 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -445,8 +446,8 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
